--- a/31-Models/Model_Master.xlsx
+++ b/31-Models/Model_Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="KAGGLE" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="47">
   <si>
     <t>SR#</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>75:25</t>
+  </si>
+  <si>
+    <t>glm</t>
+  </si>
+  <si>
+    <t>HIGH ONLY</t>
   </si>
 </sst>
 </file>
@@ -359,6 +365,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,9 +393,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -692,9 +698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,38 +724,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="26" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="20" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -795,7 +801,7 @@
       <c r="P2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -880,7 +886,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="29">
+      <c r="P4" s="20">
         <v>0.63217999999999996</v>
       </c>
       <c r="Q4" s="5" t="s">
@@ -1453,21 +1459,39 @@
       </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L17" s="14"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
@@ -1475,21 +1499,39 @@
       <c r="P17" s="17"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f xml:space="preserve"> ROW()-2</f>
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J18" s="11"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L18" s="14"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
@@ -1497,21 +1539,39 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L19" s="14"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
